--- a/490_その他/491-2_コード_コード一覧_202012.xlsx
+++ b/490_その他/491-2_コード_コード一覧_202012.xlsx
@@ -51278,11 +51278,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AA06A8A97B81CB449FCF07970FCC7F2C" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e098a45b3705cfc2493009b57a546a4a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f29c99a9-2f7a-4302-86cb-05f0a42840fb" xmlns:ns3="418539d9-ccaa-4f07-ad3e-d267fe6a0194" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f840fee6fb3897cc9ba6eb64f1070675" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="f29c99a9-2f7a-4302-86cb-05f0a42840fb"/>
-    <xsd:import namespace="418539d9-ccaa-4f07-ad3e-d267fe6a0194"/>
+    <xsd:import namespace="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <xsd:import namespace="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -51291,19 +51291,18 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -51314,18 +51313,18 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="12" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="14" nillable="true" ma:displayName="統合コンプライアンス ポリシーのプロパティ" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="13" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="15" nillable="true" ma:displayName="統合コンプライアンス ポリシーの UI アクション" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f29c99a9-2f7a-4302-86cb-05f0a42840fb" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c3438c2-774e-4b56-8e53-485ea73e7025" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -51338,60 +51337,55 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="18" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="17" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="20" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="21" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="418539d9-ccaa-4f07-ad3e-d267fe6a0194" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a753eb55-ace7-47fe-8293-79a8dad7846a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -51410,7 +51404,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -51536,7 +51530,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1367025-EF70-4155-9959-4056D2B85D96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{108DF0F4-390F-4676-A92A-5A3F0914B832}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/490_その他/491-2_コード_コード一覧_202012.xlsx
+++ b/490_その他/491-2_コード_コード一覧_202012.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{366F3462-C282-4E8D-AE8A-2D48F196450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="6_{366F3462-C282-4E8D-AE8A-2D48F196450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5BB456F-626D-4DDB-838D-22E0857A465D}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="372" windowWidth="15072" windowHeight="16296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="22" r:id="rId1"/>
@@ -21339,7 +21339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -21468,6 +21468,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -21477,7 +21490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21714,6 +21727,12 @@
     </xf>
     <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -22056,9 +22075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22142,14 +22159,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A9:XFD23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6328125" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="40.6328125" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" customWidth="1"/>
@@ -22515,7 +22535,7 @@
       <c r="D15" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="79" t="s">
         <v>812</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -22524,7 +22544,7 @@
       <c r="G15" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="3" t="s">
         <v>814</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -22553,7 +22573,7 @@
       <c r="D16" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="79" t="s">
         <v>1433</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -22745,7 +22765,7 @@
       <c r="D21" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="79" t="s">
         <v>1451</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -22785,7 +22805,7 @@
       <c r="D22" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="79" t="s">
         <v>1451</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -22825,7 +22845,7 @@
       <c r="D23" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="79" t="s">
         <v>1458</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -22834,7 +22854,7 @@
       <c r="G23" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="3" t="s">
         <v>1460</v>
       </c>
       <c r="I23" s="36" t="s">
@@ -22880,8 +22900,8 @@
   <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -22890,7 +22910,7 @@
     <col min="2" max="2" width="12.36328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" style="69" customWidth="1"/>
     <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="34" style="8" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="40.6328125" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" style="8" customWidth="1"/>
@@ -22979,7 +22999,7 @@
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A3" s="71">
         <v>2</v>
       </c>
@@ -23018,7 +23038,7 @@
       </c>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A4" s="71">
         <v>3</v>
       </c>
@@ -23057,7 +23077,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A5" s="71">
         <v>4</v>
       </c>
@@ -23096,7 +23116,7 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" s="71">
         <v>5</v>
       </c>
@@ -23135,7 +23155,7 @@
       </c>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A7" s="71">
         <v>6</v>
       </c>
@@ -23174,7 +23194,7 @@
       </c>
       <c r="M7" s="30"/>
     </row>
-    <row r="8" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A8" s="71">
         <v>7</v>
       </c>
@@ -24773,7 +24793,7 @@
       </c>
       <c r="M48" s="30"/>
     </row>
-    <row r="49" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A49" s="71">
         <v>48</v>
       </c>
@@ -24812,7 +24832,7 @@
       </c>
       <c r="M49" s="30"/>
     </row>
-    <row r="50" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A50" s="71">
         <v>49</v>
       </c>
@@ -24851,7 +24871,7 @@
       </c>
       <c r="M50" s="30"/>
     </row>
-    <row r="51" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A51" s="71">
         <v>50</v>
       </c>
@@ -24890,7 +24910,7 @@
       </c>
       <c r="M51" s="30"/>
     </row>
-    <row r="52" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A52" s="71">
         <v>51</v>
       </c>
@@ -24929,7 +24949,7 @@
       </c>
       <c r="M52" s="30"/>
     </row>
-    <row r="53" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A53" s="71">
         <v>52</v>
       </c>
@@ -24968,7 +24988,7 @@
       </c>
       <c r="M53" s="30"/>
     </row>
-    <row r="54" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A54" s="71">
         <v>53</v>
       </c>
@@ -25007,7 +25027,7 @@
       </c>
       <c r="M54" s="30"/>
     </row>
-    <row r="55" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A55" s="71">
         <v>54</v>
       </c>
@@ -25046,7 +25066,7 @@
       </c>
       <c r="M55" s="30"/>
     </row>
-    <row r="56" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A56" s="71">
         <v>55</v>
       </c>
@@ -25087,7 +25107,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A57" s="71">
         <v>56</v>
       </c>
@@ -25126,7 +25146,7 @@
       </c>
       <c r="M57" s="30"/>
     </row>
-    <row r="58" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A58" s="71">
         <v>57</v>
       </c>
@@ -25165,7 +25185,7 @@
       </c>
       <c r="M58" s="30"/>
     </row>
-    <row r="59" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A59" s="71">
         <v>58</v>
       </c>
@@ -25204,7 +25224,7 @@
       </c>
       <c r="M59" s="30"/>
     </row>
-    <row r="60" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A60" s="71">
         <v>59</v>
       </c>
@@ -25243,7 +25263,7 @@
       </c>
       <c r="M60" s="30"/>
     </row>
-    <row r="61" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A61" s="71">
         <v>60</v>
       </c>
@@ -25282,7 +25302,7 @@
       </c>
       <c r="M61" s="30"/>
     </row>
-    <row r="62" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A62" s="71">
         <v>61</v>
       </c>
@@ -25321,7 +25341,7 @@
       </c>
       <c r="M62" s="30"/>
     </row>
-    <row r="63" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A63" s="71">
         <v>62</v>
       </c>
@@ -25360,7 +25380,7 @@
       </c>
       <c r="M63" s="24"/>
     </row>
-    <row r="64" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A64" s="71">
         <v>63</v>
       </c>
@@ -25399,7 +25419,7 @@
       </c>
       <c r="M64" s="24"/>
     </row>
-    <row r="65" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A65" s="71">
         <v>64</v>
       </c>
@@ -25438,7 +25458,7 @@
       </c>
       <c r="M65" s="24"/>
     </row>
-    <row r="66" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A66" s="71">
         <v>65</v>
       </c>
@@ -25477,7 +25497,7 @@
       </c>
       <c r="M66" s="24"/>
     </row>
-    <row r="67" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A67" s="71">
         <v>66</v>
       </c>
@@ -25516,7 +25536,7 @@
       </c>
       <c r="M67" s="24"/>
     </row>
-    <row r="68" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A68" s="71">
         <v>67</v>
       </c>
@@ -25555,7 +25575,7 @@
       </c>
       <c r="M68" s="24"/>
     </row>
-    <row r="69" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A69" s="71">
         <v>68</v>
       </c>
@@ -25785,7 +25805,7 @@
       </c>
       <c r="M74" s="24"/>
     </row>
-    <row r="75" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A75" s="71">
         <v>74</v>
       </c>
@@ -25898,7 +25918,7 @@
       </c>
       <c r="M77" s="30"/>
     </row>
-    <row r="78" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A78" s="71">
         <v>77</v>
       </c>
@@ -25937,7 +25957,7 @@
       </c>
       <c r="M78" s="30"/>
     </row>
-    <row r="79" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A79" s="71">
         <v>78</v>
       </c>
@@ -25976,7 +25996,7 @@
       </c>
       <c r="M79" s="30"/>
     </row>
-    <row r="80" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A80" s="71">
         <v>79</v>
       </c>
@@ -26015,7 +26035,7 @@
       </c>
       <c r="M80" s="30"/>
     </row>
-    <row r="81" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A81" s="71">
         <v>80</v>
       </c>
@@ -26054,7 +26074,7 @@
       </c>
       <c r="M81" s="30"/>
     </row>
-    <row r="82" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A82" s="71">
         <v>81</v>
       </c>
@@ -26093,7 +26113,7 @@
       </c>
       <c r="M82" s="30"/>
     </row>
-    <row r="83" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A83" s="71">
         <v>82</v>
       </c>
@@ -26132,7 +26152,7 @@
       </c>
       <c r="M83" s="30"/>
     </row>
-    <row r="84" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A84" s="71">
         <v>83</v>
       </c>
@@ -26171,7 +26191,7 @@
       </c>
       <c r="M84" s="30"/>
     </row>
-    <row r="85" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A85" s="71">
         <v>84</v>
       </c>
@@ -26210,7 +26230,7 @@
       </c>
       <c r="M85" s="30"/>
     </row>
-    <row r="86" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A86" s="71">
         <v>85</v>
       </c>
@@ -26249,7 +26269,7 @@
       </c>
       <c r="M86" s="30"/>
     </row>
-    <row r="87" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A87" s="71">
         <v>86</v>
       </c>
@@ -26288,7 +26308,7 @@
       </c>
       <c r="M87" s="30"/>
     </row>
-    <row r="88" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A88" s="71">
         <v>87</v>
       </c>
@@ -26327,7 +26347,7 @@
       </c>
       <c r="M88" s="30"/>
     </row>
-    <row r="89" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A89" s="71">
         <v>88</v>
       </c>
@@ -26366,7 +26386,7 @@
       </c>
       <c r="M89" s="30"/>
     </row>
-    <row r="90" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A90" s="71">
         <v>89</v>
       </c>
@@ -26405,7 +26425,7 @@
       </c>
       <c r="M90" s="30"/>
     </row>
-    <row r="91" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A91" s="71">
         <v>90</v>
       </c>
@@ -26444,7 +26464,7 @@
       </c>
       <c r="M91" s="30"/>
     </row>
-    <row r="92" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A92" s="71">
         <v>91</v>
       </c>
@@ -26483,7 +26503,7 @@
       </c>
       <c r="M92" s="30"/>
     </row>
-    <row r="93" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A93" s="71">
         <v>92</v>
       </c>
@@ -26756,7 +26776,7 @@
       </c>
       <c r="M99" s="30"/>
     </row>
-    <row r="100" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A100" s="71">
         <v>99</v>
       </c>
@@ -26795,7 +26815,7 @@
       </c>
       <c r="M100" s="30"/>
     </row>
-    <row r="101" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A101" s="71">
         <v>100</v>
       </c>
@@ -26834,7 +26854,7 @@
       </c>
       <c r="M101" s="30"/>
     </row>
-    <row r="102" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A102" s="71">
         <v>101</v>
       </c>
@@ -26873,7 +26893,7 @@
       </c>
       <c r="M102" s="30"/>
     </row>
-    <row r="103" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A103" s="71">
         <v>102</v>
       </c>
@@ -26912,7 +26932,7 @@
       </c>
       <c r="M103" s="30"/>
     </row>
-    <row r="104" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A104" s="71">
         <v>103</v>
       </c>
@@ -26951,7 +26971,7 @@
       </c>
       <c r="M104" s="30"/>
     </row>
-    <row r="105" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A105" s="71">
         <v>104</v>
       </c>
@@ -26990,7 +27010,7 @@
       </c>
       <c r="M105" s="30"/>
     </row>
-    <row r="106" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A106" s="71">
         <v>105</v>
       </c>
@@ -27692,7 +27712,7 @@
       </c>
       <c r="M123" s="30"/>
     </row>
-    <row r="124" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A124" s="71">
         <v>123</v>
       </c>
@@ -27731,7 +27751,7 @@
       </c>
       <c r="M124" s="24"/>
     </row>
-    <row r="125" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A125" s="71">
         <v>124</v>
       </c>
@@ -27768,7 +27788,7 @@
       </c>
       <c r="M125" s="30"/>
     </row>
-    <row r="126" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A126" s="71">
         <v>125</v>
       </c>
@@ -27807,7 +27827,7 @@
       </c>
       <c r="M126" s="24"/>
     </row>
-    <row r="127" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A127" s="71">
         <v>126</v>
       </c>
@@ -27846,7 +27866,7 @@
       </c>
       <c r="M127" s="24"/>
     </row>
-    <row r="128" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A128" s="71">
         <v>127</v>
       </c>
@@ -27885,7 +27905,7 @@
       </c>
       <c r="M128" s="24"/>
     </row>
-    <row r="129" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A129" s="71">
         <v>128</v>
       </c>
@@ -27922,7 +27942,7 @@
       </c>
       <c r="M129" s="30"/>
     </row>
-    <row r="130" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A130" s="71">
         <v>129</v>
       </c>
@@ -27961,7 +27981,7 @@
       </c>
       <c r="M130" s="24"/>
     </row>
-    <row r="131" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A131" s="71">
         <v>130</v>
       </c>
@@ -28000,7 +28020,7 @@
       </c>
       <c r="M131" s="24"/>
     </row>
-    <row r="132" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A132" s="71">
         <v>131</v>
       </c>
@@ -28039,7 +28059,7 @@
       </c>
       <c r="M132" s="24"/>
     </row>
-    <row r="133" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A133" s="71">
         <v>132</v>
       </c>
@@ -28078,7 +28098,7 @@
       </c>
       <c r="M133" s="24"/>
     </row>
-    <row r="134" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A134" s="71">
         <v>133</v>
       </c>
@@ -28117,7 +28137,7 @@
       </c>
       <c r="M134" s="24"/>
     </row>
-    <row r="135" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A135" s="71">
         <v>134</v>
       </c>
@@ -28234,7 +28254,7 @@
       </c>
       <c r="M137" s="30"/>
     </row>
-    <row r="138" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A138" s="71">
         <v>137</v>
       </c>
@@ -28312,7 +28332,7 @@
       </c>
       <c r="M139" s="24"/>
     </row>
-    <row r="140" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A140" s="71">
         <v>139</v>
       </c>
@@ -28429,7 +28449,7 @@
       </c>
       <c r="M142" s="30"/>
     </row>
-    <row r="143" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A143" s="71">
         <v>142</v>
       </c>
@@ -28468,7 +28488,7 @@
       </c>
       <c r="M143" s="30"/>
     </row>
-    <row r="144" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A144" s="71">
         <v>143</v>
       </c>
@@ -28507,7 +28527,7 @@
       </c>
       <c r="M144" s="30"/>
     </row>
-    <row r="145" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A145" s="71">
         <v>144</v>
       </c>
@@ -28546,7 +28566,7 @@
       </c>
       <c r="M145" s="30"/>
     </row>
-    <row r="146" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A146" s="71">
         <v>145</v>
       </c>
@@ -28585,7 +28605,7 @@
       </c>
       <c r="M146" s="30"/>
     </row>
-    <row r="147" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A147" s="71">
         <v>146</v>
       </c>
@@ -28624,7 +28644,7 @@
       </c>
       <c r="M147" s="30"/>
     </row>
-    <row r="148" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A148" s="71">
         <v>147</v>
       </c>
@@ -28663,7 +28683,7 @@
       </c>
       <c r="M148" s="30"/>
     </row>
-    <row r="149" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A149" s="71">
         <v>148</v>
       </c>
@@ -28741,7 +28761,7 @@
       </c>
       <c r="M150" s="30"/>
     </row>
-    <row r="151" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A151" s="71">
         <v>150</v>
       </c>
@@ -28780,7 +28800,7 @@
       </c>
       <c r="M151" s="30"/>
     </row>
-    <row r="152" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A152" s="71">
         <v>151</v>
       </c>
@@ -28819,7 +28839,7 @@
       </c>
       <c r="M152" s="30"/>
     </row>
-    <row r="153" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A153" s="71">
         <v>152</v>
       </c>
@@ -28897,7 +28917,7 @@
       </c>
       <c r="M154" s="30"/>
     </row>
-    <row r="155" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A155" s="71">
         <v>154</v>
       </c>
@@ -28936,7 +28956,7 @@
       </c>
       <c r="M155" s="30"/>
     </row>
-    <row r="156" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A156" s="71">
         <v>155</v>
       </c>
@@ -28975,7 +28995,7 @@
       </c>
       <c r="M156" s="30"/>
     </row>
-    <row r="157" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A157" s="71">
         <v>156</v>
       </c>
@@ -29014,7 +29034,7 @@
       </c>
       <c r="M157" s="30"/>
     </row>
-    <row r="158" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A158" s="71">
         <v>157</v>
       </c>
@@ -29287,7 +29307,7 @@
       </c>
       <c r="M164" s="30"/>
     </row>
-    <row r="165" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A165" s="71">
         <v>164</v>
       </c>
@@ -29326,7 +29346,7 @@
       </c>
       <c r="M165" s="30"/>
     </row>
-    <row r="166" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A166" s="71">
         <v>165</v>
       </c>
@@ -29365,7 +29385,7 @@
       </c>
       <c r="M166" s="30"/>
     </row>
-    <row r="167" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A167" s="71">
         <v>166</v>
       </c>
@@ -29404,7 +29424,7 @@
       </c>
       <c r="M167" s="30"/>
     </row>
-    <row r="168" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A168" s="71">
         <v>167</v>
       </c>
@@ -29443,7 +29463,7 @@
       </c>
       <c r="M168" s="30"/>
     </row>
-    <row r="169" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A169" s="71">
         <v>168</v>
       </c>
@@ -29482,7 +29502,7 @@
       </c>
       <c r="M169" s="30"/>
     </row>
-    <row r="170" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A170" s="71">
         <v>169</v>
       </c>
@@ -29521,7 +29541,7 @@
       </c>
       <c r="M170" s="30"/>
     </row>
-    <row r="171" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A171" s="71">
         <v>170</v>
       </c>
@@ -29911,7 +29931,7 @@
       </c>
       <c r="M180" s="31"/>
     </row>
-    <row r="181" spans="1:13" s="21" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" s="21" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A181" s="71">
         <v>180</v>
       </c>
@@ -29989,7 +30009,7 @@
       </c>
       <c r="M182" s="30"/>
     </row>
-    <row r="183" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A183" s="71">
         <v>182</v>
       </c>
@@ -30028,7 +30048,7 @@
       </c>
       <c r="M183" s="30"/>
     </row>
-    <row r="184" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A184" s="71">
         <v>183</v>
       </c>
@@ -30106,7 +30126,7 @@
       </c>
       <c r="M185" s="30"/>
     </row>
-    <row r="186" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A186" s="71">
         <v>185</v>
       </c>
@@ -30145,7 +30165,7 @@
       </c>
       <c r="M186" s="30"/>
     </row>
-    <row r="187" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A187" s="71">
         <v>186</v>
       </c>
@@ -30184,7 +30204,7 @@
       </c>
       <c r="M187" s="30"/>
     </row>
-    <row r="188" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A188" s="71">
         <v>187</v>
       </c>
@@ -30223,7 +30243,7 @@
       </c>
       <c r="M188" s="30"/>
     </row>
-    <row r="189" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A189" s="71">
         <v>188</v>
       </c>
@@ -30344,7 +30364,7 @@
       </c>
       <c r="M191" s="30"/>
     </row>
-    <row r="192" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A192" s="71">
         <v>191</v>
       </c>
@@ -30738,7 +30758,7 @@
       </c>
       <c r="M201" s="30"/>
     </row>
-    <row r="202" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A202" s="71">
         <v>201</v>
       </c>
@@ -31027,8 +31047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -31036,7 +31056,8 @@
     <col min="1" max="1" width="6.6328125" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="40.6328125" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" customWidth="1"/>
@@ -31280,7 +31301,7 @@
       </c>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -31633,7 +31654,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -31672,7 +31693,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -31828,7 +31849,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -33021,7 +33042,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -33030,7 +33051,7 @@
     <col min="2" max="2" width="12.36328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" style="10" customWidth="1"/>
     <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.36328125" style="8" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="40.6328125" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" style="8" customWidth="1"/>
@@ -33094,7 +33115,7 @@
       <c r="D2" s="1" t="s">
         <v>2179</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="79" t="s">
         <v>2180</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -33119,7 +33140,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -33131,7 +33152,7 @@
       <c r="D3" s="1" t="s">
         <v>2182</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -33156,7 +33177,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -33168,7 +33189,7 @@
       <c r="D4" s="1" t="s">
         <v>2186</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -33193,7 +33214,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -33205,7 +33226,7 @@
       <c r="D5" s="1" t="s">
         <v>2187</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -33230,7 +33251,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -33242,7 +33263,7 @@
       <c r="D6" s="1" t="s">
         <v>2188</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -33267,7 +33288,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -33279,7 +33300,7 @@
       <c r="D7" s="1" t="s">
         <v>2189</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -33304,7 +33325,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -33316,7 +33337,7 @@
       <c r="D8" s="1" t="s">
         <v>2190</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -33341,7 +33362,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -33353,7 +33374,7 @@
       <c r="D9" s="1" t="s">
         <v>2191</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -33378,7 +33399,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -33390,7 +33411,7 @@
       <c r="D10" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -33415,7 +33436,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -33427,7 +33448,7 @@
       <c r="D11" s="1" t="s">
         <v>2193</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -33452,7 +33473,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -33464,7 +33485,7 @@
       <c r="D12" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -33489,7 +33510,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -33526,7 +33547,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -33563,7 +33584,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -33575,7 +33596,7 @@
       <c r="D15" s="1" t="s">
         <v>2197</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -33600,7 +33621,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -33612,7 +33633,7 @@
       <c r="D16" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -33637,7 +33658,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -33649,7 +33670,7 @@
       <c r="D17" s="1" t="s">
         <v>2199</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -33674,7 +33695,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -33686,7 +33707,7 @@
       <c r="D18" s="1" t="s">
         <v>2200</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -33711,7 +33732,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -33723,7 +33744,7 @@
       <c r="D19" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -33748,7 +33769,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -33760,7 +33781,7 @@
       <c r="D20" s="1" t="s">
         <v>2202</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -33785,7 +33806,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -33797,7 +33818,7 @@
       <c r="D21" s="1" t="s">
         <v>2203</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -33822,7 +33843,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -33834,7 +33855,7 @@
       <c r="D22" s="1" t="s">
         <v>2204</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -33859,7 +33880,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -33871,7 +33892,7 @@
       <c r="D23" s="1" t="s">
         <v>2205</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -33896,7 +33917,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -33908,7 +33929,7 @@
       <c r="D24" s="1" t="s">
         <v>2206</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -33933,7 +33954,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -33945,7 +33966,7 @@
       <c r="D25" s="1" t="s">
         <v>2207</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -33970,7 +33991,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -33982,7 +34003,7 @@
       <c r="D26" s="1" t="s">
         <v>2208</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -34007,7 +34028,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -34019,7 +34040,7 @@
       <c r="D27" s="1" t="s">
         <v>2209</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -34044,7 +34065,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="104" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="65" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -34056,7 +34077,7 @@
       <c r="D28" s="1" t="s">
         <v>2210</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="79" t="s">
         <v>2183</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -35262,7 +35283,8 @@
     <col min="1" max="1" width="6.6328125" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="40.6328125" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" customWidth="1"/>
@@ -35344,7 +35366,7 @@
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -35383,7 +35405,7 @@
       </c>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -35422,7 +35444,7 @@
       </c>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -35496,7 +35518,7 @@
       </c>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="1:13" ht="78" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -35535,7 +35557,7 @@
       </c>
       <c r="M7" s="30"/>
     </row>
-    <row r="8" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -35613,7 +35635,7 @@
       </c>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -35841,7 +35863,7 @@
       </c>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="1:13" ht="195" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="130" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -35915,7 +35937,7 @@
       </c>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -35989,7 +36011,7 @@
       </c>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -36026,7 +36048,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -36104,7 +36126,7 @@
       </c>
       <c r="M22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="78" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -36404,7 +36426,7 @@
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -36443,7 +36465,7 @@
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -36745,7 +36767,7 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -37543,7 +37565,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -37552,7 +37574,7 @@
     <col min="2" max="2" width="12.36328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" style="12" customWidth="1"/>
     <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" style="8" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="40.6328125" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" style="8" customWidth="1"/>
@@ -37602,7 +37624,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <f t="shared" ref="A2:A19" si="0">ROW()-1</f>
         <v>1</v>
@@ -37640,7 +37662,7 @@
       </c>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -37680,7 +37702,7 @@
       </c>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -37720,7 +37742,7 @@
       </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -37760,7 +37782,7 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -37800,7 +37822,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="78" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -38000,7 +38022,7 @@
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -38196,7 +38218,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -38314,7 +38336,7 @@
       </c>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <f t="shared" ref="A20:A83" si="1">ROW()-1</f>
         <v>19</v>
@@ -38863,7 +38885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -41102,7 +41124,8 @@
     <col min="1" max="1" width="6.6328125" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="28.08984375" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="40.6328125" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" customWidth="1"/>
@@ -41151,7 +41174,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -41227,7 +41250,7 @@
       </c>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -41420,7 +41443,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -41459,7 +41482,7 @@
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -41498,7 +41521,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -41537,7 +41560,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -41572,7 +41595,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -41611,7 +41634,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -41650,7 +41673,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -41689,7 +41712,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="78" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -41728,7 +41751,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:18" ht="52" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="39" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -41806,7 +41829,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:18" ht="65" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="52" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -41845,7 +41868,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:18" ht="78" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="52" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -41999,7 +42022,7 @@
       </c>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:18" ht="39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -42083,7 +42106,7 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18" ht="39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="26" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -42122,7 +42145,7 @@
       </c>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:18" ht="52" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="39" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -42200,7 +42223,7 @@
       </c>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:18" ht="52" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="39" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -42239,7 +42262,7 @@
       </c>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:18" ht="65" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="52" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -42278,7 +42301,7 @@
       </c>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:18" ht="39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="26" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -42668,7 +42691,7 @@
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -42707,7 +42730,7 @@
       </c>
       <c r="M41" s="9"/>
     </row>
-    <row r="42" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -42746,7 +42769,7 @@
       </c>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -42863,7 +42886,7 @@
       </c>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -43019,7 +43042,7 @@
       </c>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>49</v>
       </c>
@@ -43097,7 +43120,7 @@
       </c>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -43255,7 +43278,7 @@
       </c>
       <c r="M55" s="30"/>
     </row>
-    <row r="56" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>55</v>
       </c>
@@ -43503,7 +43526,8 @@
     <col min="1" max="1" width="6.6328125" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="40.6328125" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" customWidth="1"/>
@@ -43567,7 +43591,7 @@
       <c r="D2" s="39" t="s">
         <v>760</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="2" t="s">
         <v>761</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -43593,7 +43617,7 @@
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:13" ht="91" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="65" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>ROW()-1</f>
         <v>2</v>
@@ -43607,7 +43631,7 @@
       <c r="D3" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="3" t="s">
         <v>766</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -43795,7 +43819,7 @@
       </c>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="117" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="91" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <f>ROW()-1</f>
         <v>7</v>
@@ -43809,7 +43833,7 @@
       <c r="D8" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="3" t="s">
         <v>784</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -43818,7 +43842,7 @@
       <c r="G8" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="3" t="s">
         <v>786</v>
       </c>
       <c r="I8" s="37" t="s">
@@ -43835,7 +43859,7 @@
       </c>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <f>ROW()-1</f>
         <v>8</v>
@@ -43915,7 +43939,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <f>ROW()-8</f>
         <v>3</v>
@@ -43995,7 +44019,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <f t="shared" ref="A13:A22" si="1">ROW()-1</f>
         <v>12</v>
@@ -44018,7 +44042,7 @@
       <c r="G13" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="79" t="s">
         <v>808</v>
       </c>
       <c r="I13" s="37" t="s">
@@ -44051,7 +44075,7 @@
       <c r="D14" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="79" t="s">
         <v>812</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -44060,7 +44084,7 @@
       <c r="G14" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="79" t="s">
         <v>814</v>
       </c>
       <c r="I14" s="37" t="s">
@@ -44091,7 +44115,7 @@
       <c r="D15" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="79" t="s">
         <v>817</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -44100,7 +44124,7 @@
       <c r="G15" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="79" t="s">
         <v>552</v>
       </c>
       <c r="I15" s="36" t="s">
@@ -44131,7 +44155,7 @@
       <c r="D16" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="79" t="s">
         <v>818</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -44140,7 +44164,7 @@
       <c r="G16" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="79" t="s">
         <v>820</v>
       </c>
       <c r="I16" s="36" t="s">
@@ -44157,7 +44181,7 @@
       </c>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -44171,7 +44195,7 @@
       <c r="D17" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="79" t="s">
         <v>823</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -44180,7 +44204,7 @@
       <c r="G17" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="79" t="s">
         <v>825</v>
       </c>
       <c r="I17" s="37" t="s">
@@ -44197,7 +44221,7 @@
       </c>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13" ht="68.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -44211,7 +44235,7 @@
       <c r="D18" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="79" t="s">
         <v>828</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -44220,7 +44244,7 @@
       <c r="G18" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="79" t="s">
         <v>830</v>
       </c>
       <c r="I18" s="9" t="s">
@@ -44247,7 +44271,7 @@
       <c r="D19" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="79" t="s">
         <v>833</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -44287,7 +44311,7 @@
       <c r="D20" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="80" t="s">
         <v>836</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -44327,7 +44351,7 @@
       <c r="D21" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="79" t="s">
         <v>840</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -44553,7 +44577,7 @@
       </c>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -44633,7 +44657,7 @@
       </c>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -44753,7 +44777,7 @@
       </c>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -44833,7 +44857,7 @@
       </c>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -44913,7 +44937,7 @@
       </c>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <f>ROW()-1</f>
         <v>35</v>
@@ -45269,7 +45293,7 @@
       </c>
       <c r="M44" s="9"/>
     </row>
-    <row r="45" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -45748,7 +45772,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -45757,7 +45781,7 @@
     <col min="2" max="2" width="12.36328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" style="12" customWidth="1"/>
     <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="35.36328125" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="40.6328125" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" customWidth="1"/>
@@ -46001,7 +46025,7 @@
       </c>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -46079,7 +46103,7 @@
       </c>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -46196,7 +46220,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -46235,7 +46259,7 @@
       </c>
       <c r="M12" s="30"/>
     </row>
-    <row r="13" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -46391,7 +46415,7 @@
       </c>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -46430,7 +46454,7 @@
       </c>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -46586,7 +46610,7 @@
       </c>
       <c r="M21" s="24"/>
     </row>
-    <row r="22" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -47159,7 +47183,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -47307,7 +47331,7 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -47518,7 +47542,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -47527,7 +47551,7 @@
     <col min="2" max="2" width="12.36328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" style="12" customWidth="1"/>
     <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="35.36328125" style="8" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="40.6328125" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" style="8" customWidth="1"/>
@@ -47737,7 +47761,7 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -47777,7 +47801,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -47857,7 +47881,7 @@
       </c>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -47971,7 +47995,7 @@
       </c>
       <c r="M11" s="30"/>
     </row>
-    <row r="12" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -48009,7 +48033,7 @@
       </c>
       <c r="M12" s="30"/>
     </row>
-    <row r="13" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -48049,7 +48073,7 @@
       </c>
       <c r="M13" s="30"/>
     </row>
-    <row r="14" spans="1:13" ht="39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -48209,7 +48233,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -48247,7 +48271,7 @@
       </c>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -48607,7 +48631,7 @@
       </c>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -48647,7 +48671,7 @@
       </c>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" ht="78" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -48807,7 +48831,7 @@
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -48847,7 +48871,7 @@
       </c>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:13" ht="65" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -48969,7 +48993,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -48977,7 +49001,8 @@
     <col min="1" max="1" width="6.6328125" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="27.7265625" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="40.6328125" customWidth="1"/>
     <col min="8" max="8" width="20.6328125" customWidth="1"/>
@@ -49729,7 +49754,7 @@
       </c>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="52" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>20</v>
       </c>
@@ -50665,7 +50690,7 @@
       </c>
       <c r="M43" s="30"/>
     </row>
-    <row r="44" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>44</v>
       </c>
@@ -50743,7 +50768,7 @@
       </c>
       <c r="M45" s="30"/>
     </row>
-    <row r="46" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>46</v>
       </c>
@@ -50782,7 +50807,7 @@
       </c>
       <c r="M46" s="30"/>
     </row>
-    <row r="47" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>47</v>
       </c>
@@ -50821,7 +50846,7 @@
       </c>
       <c r="M47" s="30"/>
     </row>
-    <row r="48" spans="1:13" ht="52" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="39" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>48</v>
       </c>
@@ -51278,6 +51303,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -51511,32 +51554,48 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{108DF0F4-390F-4676-A92A-5A3F0914B832}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1814287F-FF87-466C-BCA1-9B897FE7925F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F82E8AF6-3482-4EE7-849F-D3790F82D46A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F82E8AF6-3482-4EE7-849F-D3790F82D46A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1814287F-FF87-466C-BCA1-9B897FE7925F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{108DF0F4-390F-4676-A92A-5A3F0914B832}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
+    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/490_その他/491-2_コード_コード一覧_202012.xlsx
+++ b/490_その他/491-2_コード_コード一覧_202012.xlsx
@@ -51307,6 +51307,10 @@
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a753eb55-ace7-47fe-8293-79a8dad7846a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3438c2-774e-4b56-8e53-485ea73e7025">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -51321,8 +51325,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5cff38341164ef1488fc0a24456c290c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f13cea36877208107684981ea0154bad" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009605DF11039F5D478FE5EDAFD3B87737" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e82c22d9b9d1c9d5f15e730a94f0054a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8c3438c2-774e-4b56-8e53-485ea73e7025" xmlns:ns3="a753eb55-ace7-47fe-8293-79a8dad7846a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f219453cf2bb4a031458c95bf6b08bf0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
     <xsd:import namespace="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
@@ -51346,6 +51350,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -51424,6 +51430,13 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1e1c6816-2a4f-4461-93c7-8dd281d6228d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a753eb55-ace7-47fe-8293-79a8dad7846a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -51453,6 +51466,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{88513228-1833-43bb-9239-8ece679cdd95}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a753eb55-ace7-47fe-8293-79a8dad7846a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -51581,21 +51605,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{108DF0F4-390F-4676-A92A-5A3F0914B832}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="8c3438c2-774e-4b56-8e53-485ea73e7025"/>
-    <ds:schemaRef ds:uri="a753eb55-ace7-47fe-8293-79a8dad7846a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDB12257-4760-4B13-9F43-FA6B48577F17}"/>
 </file>
--- a/490_その他/491-2_コード_コード一覧_202012.xlsx
+++ b/490_その他/491-2_コード_コード一覧_202012.xlsx
@@ -51605,5 +51605,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDB12257-4760-4B13-9F43-FA6B48577F17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C75B4F-371B-4C5D-B1E2-A3D1D792EF85}"/>
 </file>